--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang5/XLBH_T5.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang5/XLBH_T5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>2.1 Số lượng xử lý theo mã thiết bị</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Từ ngày 01- 29/04/2021</t>
-  </si>
-  <si>
     <t>TG102LE</t>
   </si>
   <si>
@@ -144,14 +135,28 @@
   </si>
   <si>
     <t>TG102LE - 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Từ ngày 01- 28/05/2021</t>
+  </si>
+  <si>
+    <t>Đang xử lý</t>
+  </si>
+  <si>
+    <t>Đã xử lý xong</t>
+  </si>
+  <si>
+    <t>Đã trả</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -336,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -369,9 +374,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -404,6 +406,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,34 +694,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -724,408 +732,550 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <f>SUM(E4:G4)</f>
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <f>SUM((F4+G4)/(D4/100))</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="10"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(E5:G5)</f>
+        <v>89</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <v>67</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" ref="H5:H15" si="0">SUM((F5+G5)/(D5/100))</f>
+        <v>97.752808988764045</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5:I15" si="1">SUM(E5/(D5/100))</f>
+        <v>2.2471910112359552</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="10"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D5:D14" si="2">SUM(E6:G6)</f>
+        <v>61</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>80.327868852459019</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>19.672131147540984</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="10"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="G7" s="4">
+        <v>36</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="10"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
       <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
       <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
+      <c r="G11" s="4">
+        <v>19</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
       <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
       <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="10"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
       <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="22">
+        <f>SUM(E16:G16)</f>
+        <v>230</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="6">
+        <f>SUM(E4:E15)</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="6">
+        <f>SUM(F4:F15)</f>
+        <v>27</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(G4:G15)</f>
+        <v>189</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(SUM(F4:G15)/(C16/100))</f>
+        <v>93.913043478260875</v>
+      </c>
+      <c r="I16" s="11">
+        <f>SUM(SUM(E16)/(C16/100))</f>
+        <v>6.0869565217391308</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="D19" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D21" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D22" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>6</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="18">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14">
+        <v>9</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
+        <v>10</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14">
+        <v>12</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16" t="s">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14">
+        <v>13</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="17">
         <v>21</v>
       </c>
-      <c r="D21" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
-        <v>3</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
-        <v>5</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15">
-        <v>6</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="18">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
-        <v>7</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
-        <v>9</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15">
-        <v>10</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15">
-        <v>11</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="18">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15">
-        <v>12</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15">
-        <v>13</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="18">
-        <v>11</v>
-      </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>14</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1</v>
-      </c>
+      <c r="C33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
